--- a/robots/jackal/vision_based_navigation_ttt/tau_values/tau_value382.xlsx
+++ b/robots/jackal/vision_based_navigation_ttt/tau_values/tau_value382.xlsx
@@ -348,19 +348,19 @@
   <sheetData>
     <row r="1" spans="1:5">
       <c r="A1">
-        <v>0.8105277153085854</v>
+        <v>1.912493824958801</v>
       </c>
       <c r="B1">
-        <v>1.276817390182122</v>
+        <v>3.451638698577881</v>
       </c>
       <c r="C1">
-        <v>1.829483040915519</v>
+        <v>2.903152942657471</v>
       </c>
       <c r="D1">
-        <v>2.180031161742683</v>
+        <v>2.053718566894531</v>
       </c>
       <c r="E1">
-        <v>2.529445845415907</v>
+        <v>1.191772937774658</v>
       </c>
     </row>
   </sheetData>
